--- a/227-annexe-diagramme-de-séquence-b-e-b-corriger-le-flux-14/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/227-annexe-diagramme-de-séquence-b-e-b-corriger-le-flux-14/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:09:00+00:00</t>
+    <t>2024-10-02T13:34:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
